--- a/input/attributes_wi.xlsx
+++ b/input/attributes_wi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\wildlife-cameras\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A64789-DAC1-4E2A-A0E7-A9E0CF9A9035}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D50C3EE-F3E9-4B54-8EA0-C453FE6AA74D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20130" windowHeight="9645" xr2:uid="{355543F9-C9E0-4742-950A-669239EB3E19}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$55:$E$81</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="364">
   <si>
     <t>Table</t>
   </si>
@@ -1118,9 +1118,6 @@
   </si>
   <si>
     <t>detection_distance</t>
-  </si>
-  <si>
-    <t>:</t>
   </si>
   <si>
     <t>Our value</t>
@@ -1499,13 +1496,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AFF4AC7-EB89-46D7-9153-C1BF4C1917A7}">
-  <dimension ref="A1:N81"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8:E81"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,19 +1511,18 @@
     <col min="2" max="2" width="23.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="2.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="50.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28" style="1" customWidth="1"/>
-    <col min="8" max="8" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="63.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="57.42578125" style="1" customWidth="1"/>
-    <col min="11" max="12" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="50.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" style="1" customWidth="1"/>
+    <col min="7" max="7" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="63.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.42578125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1539,36 +1535,35 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="F1" s="2" t="s">
-        <v>364</v>
+        <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1581,34 +1576,33 @@
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="2">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1621,34 +1615,33 @@
       <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="2">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1661,36 +1654,35 @@
       <c r="D4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="2">
+        <v>21</v>
+      </c>
+      <c r="M4" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1703,36 +1695,35 @@
       <c r="D5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="2">
+        <v>21</v>
+      </c>
+      <c r="M5" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1745,34 +1736,33 @@
       <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="J6" s="2">
         <v>12348571</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="2">
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1785,34 +1775,33 @@
       <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F7" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="J7" s="2">
         <v>42501</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2" t="s">
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="2">
+      <c r="M7" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -1826,35 +1815,32 @@
         <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>363</v>
+        <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="2">
+      <c r="K8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -1868,35 +1854,32 @@
         <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>363</v>
+        <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="2">
+      <c r="K9" s="2"/>
+      <c r="L9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
@@ -1910,35 +1893,32 @@
         <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>363</v>
+        <v>15</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" s="2">
+      <c r="K10" s="2"/>
+      <c r="L10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -1952,35 +1932,32 @@
         <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>363</v>
+        <v>15</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="2">
+      <c r="K11" s="2"/>
+      <c r="L11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>46</v>
       </c>
@@ -1994,33 +1971,30 @@
         <v>14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>363</v>
+        <v>63</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>63</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="I12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="2">
+      <c r="L12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>46</v>
       </c>
@@ -2034,37 +2008,34 @@
         <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>363</v>
+        <v>18</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" s="2">
+        <v>21</v>
+      </c>
+      <c r="M13" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
@@ -2078,35 +2049,32 @@
         <v>14</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>363</v>
+        <v>74</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="I14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J14" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="L14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" s="2">
+        <v>21</v>
+      </c>
+      <c r="M14" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
@@ -2120,33 +2088,30 @@
         <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>363</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="2">
+      <c r="K15" s="2"/>
+      <c r="L15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -2160,35 +2125,32 @@
         <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>363</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="K16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="L16" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" s="2">
+        <v>21</v>
+      </c>
+      <c r="M16" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
@@ -2202,33 +2164,30 @@
         <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>363</v>
+        <v>18</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N17" s="2">
+      <c r="L17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
@@ -2242,35 +2201,32 @@
         <v>14</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>363</v>
+        <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="K18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="L18" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="2">
+        <v>21</v>
+      </c>
+      <c r="M18" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
@@ -2284,33 +2240,30 @@
         <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>363</v>
+        <v>98</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>98</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="2" t="s">
         <v>100</v>
       </c>
+      <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N19" s="2">
+      <c r="L19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>46</v>
       </c>
@@ -2324,33 +2277,30 @@
         <v>14</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>363</v>
+        <v>103</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>103</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="I20" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J20" s="2" t="s">
         <v>105</v>
       </c>
+      <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N20" s="2">
+      <c r="L20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>46</v>
       </c>
@@ -2364,33 +2314,30 @@
         <v>29</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>363</v>
+        <v>29</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N21" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
@@ -2404,35 +2351,32 @@
         <v>14</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>363</v>
+        <v>29</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="K22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="L22" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N22" s="2">
+        <v>21</v>
+      </c>
+      <c r="M22" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
@@ -2446,33 +2390,30 @@
         <v>14</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>363</v>
+        <v>29</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N23" s="2">
+      <c r="L23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -2486,35 +2427,32 @@
         <v>14</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>363</v>
+        <v>15</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N24" s="2">
+      <c r="K24" s="2"/>
+      <c r="L24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -2528,35 +2466,32 @@
         <v>14</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>363</v>
+        <v>15</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N25" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K25" s="2"/>
+      <c r="L25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>46</v>
       </c>
@@ -2570,33 +2505,30 @@
         <v>14</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>363</v>
+        <v>126</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>126</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N26" s="2">
+      <c r="L26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>46</v>
       </c>
@@ -2609,36 +2541,33 @@
       <c r="D27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>363</v>
+      <c r="E27" s="2">
+        <v>48</v>
       </c>
       <c r="F27" s="2">
         <v>48</v>
       </c>
-      <c r="G27" s="2">
-        <v>48</v>
-      </c>
-      <c r="H27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="I27" s="2">
+      <c r="H27" s="2">
         <v>0</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="K27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="L27" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="M27" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="N27" s="2">
+      <c r="M27" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>46</v>
       </c>
@@ -2652,35 +2581,32 @@
         <v>14</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>363</v>
+        <v>15</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="G28" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="I28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N28" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K28" s="2"/>
+      <c r="L28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>46</v>
       </c>
@@ -2694,35 +2620,32 @@
         <v>14</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>363</v>
+        <v>15</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="G29" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="I29" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N29" s="2">
+      <c r="K29" s="2"/>
+      <c r="L29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
@@ -2736,35 +2659,32 @@
         <v>14</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>363</v>
+        <v>146</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>146</v>
       </c>
       <c r="G30" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="I30" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="K30" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2" t="s">
+      <c r="K30" s="2"/>
+      <c r="L30" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="N30" s="2">
+      <c r="M30" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>151</v>
       </c>
@@ -2778,35 +2698,32 @@
         <v>14</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>363</v>
+        <v>15</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K31" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N31" s="2">
+      <c r="K31" s="2"/>
+      <c r="L31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>151</v>
       </c>
@@ -2820,35 +2737,32 @@
         <v>14</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>363</v>
+        <v>155</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>155</v>
+        <v>24</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K32" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N32" s="2">
+      <c r="K32" s="2"/>
+      <c r="L32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>151</v>
       </c>
@@ -2862,35 +2776,32 @@
         <v>14</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>363</v>
+        <v>160</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G33" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>161</v>
       </c>
+      <c r="H33" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="I33" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K33" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2" t="s">
+      <c r="K33" s="2"/>
+      <c r="L33" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="N33" s="2">
+      <c r="M33" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>151</v>
       </c>
@@ -2904,37 +2815,34 @@
         <v>14</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>363</v>
+        <v>166</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>166</v>
+        <v>24</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>167</v>
+        <v>18</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N34" s="2">
+        <v>21</v>
+      </c>
+      <c r="M34" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>151</v>
       </c>
@@ -2948,35 +2856,32 @@
         <v>14</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>363</v>
+        <v>172</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>173</v>
+        <v>18</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K35" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N35" s="2">
+      <c r="K35" s="2"/>
+      <c r="L35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>151</v>
       </c>
@@ -2990,35 +2895,32 @@
         <v>14</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>363</v>
+        <v>177</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="K36" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N36" s="2">
+      <c r="K36" s="2"/>
+      <c r="L36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M36" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>151</v>
       </c>
@@ -3032,33 +2934,30 @@
         <v>14</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>363</v>
+        <v>184</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>184</v>
+        <v>24</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>24</v>
+        <v>185</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="J37" s="2" t="s">
         <v>180</v>
       </c>
+      <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N37" s="2">
+      <c r="L37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>151</v>
       </c>
@@ -3072,33 +2971,30 @@
         <v>14</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>363</v>
+        <v>184</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>184</v>
+        <v>24</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>24</v>
+        <v>189</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="J38" s="2" t="s">
         <v>180</v>
       </c>
+      <c r="J38" s="2"/>
       <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N38" s="2">
+      <c r="L38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>151</v>
       </c>
@@ -3112,33 +3008,30 @@
         <v>14</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>363</v>
+        <v>184</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>184</v>
+        <v>24</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="J39" s="2" t="s">
         <v>180</v>
       </c>
+      <c r="J39" s="2"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N39" s="2">
+      <c r="L39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M39" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>151</v>
       </c>
@@ -3152,35 +3045,32 @@
         <v>14</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>363</v>
+        <v>184</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>184</v>
+        <v>24</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="K40" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N40" s="2">
+      <c r="K40" s="2"/>
+      <c r="L40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M40" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>151</v>
       </c>
@@ -3194,35 +3084,32 @@
         <v>14</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>363</v>
+        <v>184</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>184</v>
+        <v>24</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="K41" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N41" s="2">
+      <c r="K41" s="2"/>
+      <c r="L41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M41" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>151</v>
       </c>
@@ -3236,33 +3123,30 @@
         <v>14</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>363</v>
+        <v>184</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>184</v>
+        <v>24</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>24</v>
+        <v>202</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="J42" s="2" t="s">
         <v>180</v>
       </c>
+      <c r="J42" s="2"/>
       <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N42" s="2">
+      <c r="L42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M42" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>151</v>
       </c>
@@ -3276,33 +3160,30 @@
         <v>29</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>363</v>
+        <v>206</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="J43" s="2" t="s">
         <v>210</v>
       </c>
+      <c r="J43" s="2"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N43" s="2">
+      <c r="L43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M43" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>151</v>
       </c>
@@ -3316,35 +3197,32 @@
         <v>14</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>363</v>
+        <v>213</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>213</v>
+        <v>24</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>214</v>
+        <v>18</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K44" s="2">
+      <c r="J44" s="2">
         <v>42478.281609999998</v>
       </c>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2" t="s">
+      <c r="K44" s="2"/>
+      <c r="L44" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="N44" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M44" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>151</v>
       </c>
@@ -3358,37 +3236,34 @@
         <v>14</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>363</v>
+        <v>177</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H45" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="I45" s="2">
+      <c r="H45" s="2">
         <v>1</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="I45" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K45" s="2">
+      <c r="J45" s="2">
         <v>2</v>
       </c>
+      <c r="K45" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="L45" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M45" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="N45" s="2">
+      <c r="M45" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>151</v>
       </c>
@@ -3402,35 +3277,32 @@
         <v>29</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>363</v>
+        <v>224</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H46" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="I46" s="2">
+      <c r="H46" s="2">
         <v>0</v>
       </c>
+      <c r="I46" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="J46" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="K46" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2" t="s">
+      <c r="K46" s="2"/>
+      <c r="L46" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="N46" s="2">
+      <c r="M46" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>151</v>
       </c>
@@ -3444,33 +3316,30 @@
         <v>29</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>363</v>
+        <v>231</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>231</v>
       </c>
       <c r="G47" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="H47" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="I47" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="J47" s="2" t="s">
         <v>233</v>
       </c>
+      <c r="J47" s="2"/>
       <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N47" s="2">
+      <c r="L47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M47" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>151</v>
       </c>
@@ -3484,33 +3353,30 @@
         <v>29</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>363</v>
+        <v>231</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>231</v>
       </c>
       <c r="G48" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="H48" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="I48" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="J48" s="2" t="s">
         <v>237</v>
       </c>
+      <c r="J48" s="2"/>
       <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N48" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M48" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>151</v>
       </c>
@@ -3524,35 +3390,32 @@
         <v>29</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>363</v>
+        <v>29</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>29</v>
+        <v>240</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>240</v>
+        <v>29</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>29</v>
+        <v>241</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N49" s="2">
+        <v>14</v>
+      </c>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M49" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>151</v>
       </c>
@@ -3566,35 +3429,32 @@
         <v>29</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>363</v>
+        <v>18</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>18</v>
+        <v>244</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>244</v>
+        <v>18</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K50" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N50" s="2">
+      <c r="K50" s="2"/>
+      <c r="L50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M50" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>151</v>
       </c>
@@ -3608,33 +3468,30 @@
         <v>29</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>363</v>
+        <v>248</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>248</v>
+        <v>24</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="J51" s="2"/>
       <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N51" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M51" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>151</v>
       </c>
@@ -3648,33 +3505,30 @@
         <v>29</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>363</v>
+        <v>18</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>18</v>
+        <v>252</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>252</v>
+        <v>18</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="J52" s="2"/>
       <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N52" s="2">
+      <c r="L52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M52" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>151</v>
       </c>
@@ -3688,37 +3542,34 @@
         <v>29</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>363</v>
+        <v>255</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>255</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>257</v>
+        <v>18</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>18</v>
+        <v>258</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N53" s="2">
+        <v>21</v>
+      </c>
+      <c r="M53" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>151</v>
       </c>
@@ -3732,37 +3583,34 @@
         <v>29</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>363</v>
+        <v>255</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>255</v>
       </c>
       <c r="G54" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="H54" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="I54" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K54" s="2">
+        <v>18</v>
+      </c>
+      <c r="J54" s="2">
         <v>42478.281609999998</v>
       </c>
+      <c r="K54" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="L54" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="M54" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="N54" s="2">
+      <c r="M54" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>264</v>
       </c>
@@ -3776,35 +3624,32 @@
         <v>14</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>363</v>
+        <v>15</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K55" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N55" s="2">
+      <c r="K55" s="2"/>
+      <c r="L55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M55" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>264</v>
       </c>
@@ -3818,35 +3663,32 @@
         <v>14</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>363</v>
+        <v>155</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>155</v>
+        <v>24</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>24</v>
+        <v>265</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>265</v>
+        <v>18</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K56" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N56" s="2">
+      <c r="K56" s="2"/>
+      <c r="L56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M56" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>264</v>
       </c>
@@ -3860,35 +3702,32 @@
         <v>29</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>363</v>
+        <v>18</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>18</v>
+        <v>268</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>268</v>
+        <v>18</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K57" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N57" s="2">
+      <c r="K57" s="2"/>
+      <c r="L57" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M57" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>264</v>
       </c>
@@ -3902,33 +3741,30 @@
         <v>29</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>363</v>
+        <v>18</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>18</v>
+        <v>272</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>272</v>
+        <v>18</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="J58" s="2"/>
       <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N58" s="2">
+      <c r="L58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M58" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>264</v>
       </c>
@@ -3942,35 +3778,32 @@
         <v>14</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>275</v>
+        <v>24</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>24</v>
+        <v>276</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>276</v>
+        <v>18</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K59" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N59" s="2">
+      <c r="K59" s="2"/>
+      <c r="L59" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M59" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>264</v>
       </c>
@@ -3984,35 +3817,32 @@
         <v>14</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>363</v>
+        <v>280</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>280</v>
+        <v>24</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>24</v>
+        <v>281</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>281</v>
+        <v>18</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K60" s="2">
+      <c r="J60" s="2">
         <v>-57.992570000000001</v>
       </c>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2" t="s">
+      <c r="K60" s="2"/>
+      <c r="L60" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="N60" s="2">
+      <c r="M60" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>264</v>
       </c>
@@ -4026,35 +3856,32 @@
         <v>14</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>363</v>
+        <v>280</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>280</v>
+        <v>24</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>24</v>
+        <v>285</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>285</v>
+        <v>18</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K61" s="2">
+      <c r="J61" s="2">
         <v>-23.731539999999999</v>
       </c>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2" t="s">
+      <c r="K61" s="2"/>
+      <c r="L61" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="N61" s="2">
+      <c r="M61" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>264</v>
       </c>
@@ -4068,35 +3895,32 @@
         <v>14</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>363</v>
+        <v>288</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>288</v>
+        <v>24</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>24</v>
+        <v>289</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>289</v>
+        <v>18</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J62" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K62" s="2">
+      <c r="J62" s="2">
         <v>42468.281609999998</v>
       </c>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2" t="s">
+      <c r="K62" s="2"/>
+      <c r="L62" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="N62" s="2">
+      <c r="M62" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>264</v>
       </c>
@@ -4110,35 +3934,32 @@
         <v>14</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>363</v>
+        <v>292</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>292</v>
+        <v>24</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>24</v>
+        <v>293</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>293</v>
+        <v>18</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K63" s="2">
+      <c r="J63" s="2">
         <v>42501.28832</v>
       </c>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2" t="s">
+      <c r="K63" s="2"/>
+      <c r="L63" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="N63" s="2">
+      <c r="M63" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>264</v>
       </c>
@@ -4152,35 +3973,32 @@
         <v>29</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>363</v>
+        <v>18</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>18</v>
+        <v>296</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>296</v>
+        <v>18</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K64" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N64" s="2">
+      <c r="K64" s="2"/>
+      <c r="L64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M64" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>264</v>
       </c>
@@ -4194,35 +4012,32 @@
         <v>29</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>363</v>
+        <v>18</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>18</v>
+        <v>300</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>300</v>
+        <v>18</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K65" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N65" s="2">
+      <c r="K65" s="2"/>
+      <c r="L65" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M65" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>264</v>
       </c>
@@ -4236,37 +4051,34 @@
         <v>29</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>363</v>
+        <v>18</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>18</v>
+        <v>304</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>304</v>
+        <v>18</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>18</v>
+        <v>305</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N66" s="2">
+        <v>21</v>
+      </c>
+      <c r="M66" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>264</v>
       </c>
@@ -4280,35 +4092,32 @@
         <v>14</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>363</v>
+        <v>18</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>18</v>
+        <v>310</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>310</v>
+        <v>18</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N67" s="2">
+        <v>18</v>
+      </c>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M67" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>264</v>
       </c>
@@ -4322,33 +4131,30 @@
         <v>29</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>363</v>
+        <v>18</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>18</v>
+        <v>313</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>313</v>
+        <v>18</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J68" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="J68" s="2"/>
       <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N68" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L68" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M68" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>264</v>
       </c>
@@ -4362,35 +4168,32 @@
         <v>14</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>363</v>
+        <v>18</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>18</v>
+        <v>316</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>316</v>
+        <v>18</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>18</v>
+        <v>317</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="K69" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N69" s="2">
+      <c r="K69" s="2"/>
+      <c r="L69" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M69" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>264</v>
       </c>
@@ -4404,31 +4207,28 @@
         <v>29</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>363</v>
+        <v>18</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G70" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="I70" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="J70" s="2"/>
       <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N70" s="2">
+      <c r="L70" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M70" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>264</v>
       </c>
@@ -4442,33 +4242,30 @@
         <v>14</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>363</v>
+        <v>23</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>24</v>
+        <v>322</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>322</v>
+        <v>18</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="J71" s="2"/>
       <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N71" s="2">
+      <c r="L71" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M71" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>264</v>
       </c>
@@ -4482,35 +4279,32 @@
         <v>14</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>324</v>
+        <v>24</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H72" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="I72" s="2">
+      <c r="H72" s="2">
         <v>0</v>
       </c>
+      <c r="I72" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J72" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K72" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2" t="s">
+      <c r="K72" s="2"/>
+      <c r="L72" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="N72" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M72" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>264</v>
       </c>
@@ -4524,35 +4318,32 @@
         <v>14</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G73" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="H73" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="H73" s="2" t="s">
-        <v>331</v>
-      </c>
       <c r="I73" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="J73" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N73" s="2">
+      <c r="K73" s="2"/>
+      <c r="L73" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M73" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>264</v>
       </c>
@@ -4566,35 +4357,32 @@
         <v>14</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="G74" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="H74" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="H74" s="2" t="s">
-        <v>336</v>
-      </c>
       <c r="I74" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="J74" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N74" s="2">
+      <c r="K74" s="2"/>
+      <c r="L74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M74" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>264</v>
       </c>
@@ -4608,31 +4396,28 @@
         <v>29</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>363</v>
+        <v>18</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H75" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2" t="s">
+      <c r="H75" s="2"/>
+      <c r="I75" s="2" t="s">
         <v>341</v>
       </c>
+      <c r="J75" s="2"/>
       <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N75" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M75" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>264</v>
       </c>
@@ -4646,33 +4431,30 @@
         <v>14</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="G76" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H76" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="H76" s="2" t="s">
-        <v>345</v>
-      </c>
       <c r="I76" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="J76" s="2" t="s">
         <v>346</v>
       </c>
+      <c r="J76" s="2"/>
       <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N76" s="2">
+      <c r="L76" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M76" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>264</v>
       </c>
@@ -4686,33 +4468,30 @@
         <v>29</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>363</v>
+        <v>18</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>18</v>
+        <v>340</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>340</v>
+        <v>18</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J77" s="2" t="s">
         <v>349</v>
       </c>
+      <c r="J77" s="2"/>
       <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N77" s="2">
+      <c r="L77" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M77" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>264</v>
       </c>
@@ -4726,33 +4505,30 @@
         <v>29</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>324</v>
+        <v>24</v>
       </c>
       <c r="G78" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M78" s="2">
         <v>24</v>
       </c>
-      <c r="H78" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N78" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>264</v>
       </c>
@@ -4766,33 +4542,30 @@
         <v>29</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>363</v>
+        <v>18</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>18</v>
+        <v>355</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>355</v>
+        <v>257</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="J79" s="2"/>
       <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N79" s="2">
+      <c r="L79" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M79" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>264</v>
       </c>
@@ -4806,33 +4579,30 @@
         <v>29</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>363</v>
+        <v>18</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>18</v>
+        <v>358</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>358</v>
+        <v>257</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="J80" s="2"/>
       <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N80" s="2">
+      <c r="L80" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M80" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>264</v>
       </c>
@@ -4846,34 +4616,31 @@
         <v>29</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>363</v>
+        <v>255</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>255</v>
       </c>
       <c r="G81" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H81" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="H81" s="2" t="s">
-        <v>361</v>
-      </c>
       <c r="I81" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="J81" s="2"/>
       <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2" t="s">
+      <c r="L81" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="N81" s="2">
+      <c r="M81" s="2">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N81" xr:uid="{C492DFA9-CD40-4A84-AAD0-8B494E908BEA}"/>
+  <autoFilter ref="B55:E81" xr:uid="{389ADF96-240E-4C59-8409-B310EEF906CE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>